--- a/Coffee Merchant-BCF/DM Multidimensional Analysis/CoffeeMerchantDM Cube Analysis.xlsx
+++ b/Coffee Merchant-BCF/DM Multidimensional Analysis/CoffeeMerchantDM Cube Analysis.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XIAO LI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siyu\Source\Repos\CoffeeMerchant_BCF\Coffee Merchant-BCF\DM Multidimensional Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6953"/>
   </bookViews>
   <sheets>
     <sheet name="tmp673F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="217" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Column Labels</t>
   </si>
@@ -99,16 +99,22 @@
     <t>April</t>
   </si>
   <si>
-    <t>The trends of the top employees are aligned with the overall tendency thus their performance is likely to be affected by the outside environment.</t>
+    <t>Overall, our sales quantities have experienced downturns in November 2016, February 2017 and Aprial 2017, and have witness peaks in December 2016 and March 2017.</t>
   </si>
   <si>
-    <t>However, the trends of bottom employess remained below expectation no matter how the overall tendency is.</t>
+    <t>Recommendation: We should not blame our top sales reps for experiencing downturns in their sales since it could be resulted from factors that they could not control. However, the bottom sales reps may</t>
   </si>
   <si>
-    <t>Our top 3 sale reps who has made the highest revenue are also who has sold the highest quantity among all the employees, while the bottom two in terms of profit differs from those of revenue.</t>
+    <t>have performed below expectation because lack of selling skills or motivation. They should be trained in the skills they are inadequate of to be a better sales rep.</t>
   </si>
   <si>
-    <t>Overall, our sales quantities have experienced downturns in November 2016, February 2017 and Aprial 2017, and have witness peaks in December 2016 and March 2017.</t>
+    <t>Our top 3 sale reps who have made the highest revenue were also the one who have sold the highest quantity among all the employees, while the bottom two in terms of quantity differs from those of revenue.</t>
+  </si>
+  <si>
+    <t>The trends of the top employees were aligned with the overall tendency thus their performance was likely to have been affected by the outside environment.</t>
+  </si>
+  <si>
+    <t>However, the trends of bottom employess remained below expectation no matter how the overall tendency was.</t>
   </si>
 </sst>
 </file>
@@ -784,6 +790,192 @@
       <c:pivotFmt>
         <c:idx val="1"/>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:shade val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:shade val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:tint val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:tint val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:tint val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:tint val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:tint val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:tint val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1574,7 +1766,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2345,7 +2536,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>755828</xdr:colOff>
+      <xdr:colOff>1317625</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
@@ -2551,7 +2742,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="217" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A1:H15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" allDrilled="1" showAll="0" sortType="descending" defaultAttributeDrillState="1">
@@ -2734,7 +2925,7 @@
       </pivotAreas>
     </conditionalFormat>
   </conditionalFormats>
-  <chartFormats count="21">
+  <chartFormats count="8">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -2766,7 +2957,7 @@
             <x v="0"/>
           </reference>
           <reference field="0" count="1" selected="0">
-            <x v="5"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -2778,7 +2969,7 @@
             <x v="0"/>
           </reference>
           <reference field="0" count="1" selected="0">
-            <x v="18"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -2790,7 +2981,7 @@
             <x v="0"/>
           </reference>
           <reference field="0" count="1" selected="0">
-            <x v="13"/>
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -2802,7 +2993,7 @@
             <x v="0"/>
           </reference>
           <reference field="0" count="1" selected="0">
-            <x v="10"/>
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -2814,7 +3005,7 @@
             <x v="0"/>
           </reference>
           <reference field="0" count="1" selected="0">
-            <x v="11"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -2826,163 +3017,7 @@
             <x v="0"/>
           </reference>
           <reference field="0" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="15"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="14"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="17"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="16"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="17" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
             <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="20" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -3346,35 +3381,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.29296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.17578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.29296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.52734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.46875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.90625" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.64453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.29296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.703125" customWidth="1"/>
+    <col min="13" max="13" width="12.46875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.05859375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.29296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.46875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.29296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.29296875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3382,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3408,7 +3443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3434,7 +3469,7 @@
         <v>3639</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -3460,7 +3495,7 @@
         <v>3639</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -3486,7 +3521,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -3512,7 +3547,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -3538,7 +3573,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -3564,7 +3599,7 @@
         <v>4646</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -3590,7 +3625,7 @@
         <v>3901</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -3616,7 +3651,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -3642,7 +3677,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -3668,7 +3703,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -3692,7 +3727,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
@@ -3716,7 +3751,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -3742,9 +3777,9 @@
         <v>8285</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A47" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -3758,9 +3793,9 @@
       <c r="K47" s="7"/>
       <c r="L47" s="8"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A48" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -3774,9 +3809,9 @@
       <c r="K48" s="10"/>
       <c r="L48" s="11"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A49" s="9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -3790,9 +3825,9 @@
       <c r="K49" s="10"/>
       <c r="L49" s="11"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A50" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -3806,7 +3841,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="11"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -3820,8 +3855,10 @@
       <c r="K51" s="10"/>
       <c r="L51" s="11"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="9"/>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A52" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -3834,9 +3871,11 @@
       <c r="K52" s="10"/>
       <c r="L52" s="11"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
+      <c r="B53" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
@@ -3848,7 +3887,7 @@
       <c r="K53" s="10"/>
       <c r="L53" s="11"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A54" s="12"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
